--- a/hes2020/kira/snyH_yzhane/kanun/Asgari-ucret.xlsx
+++ b/hes2020/kira/snyH_yzhane/kanun/Asgari-ucret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\hes2020\kira\snyH_yzhane\kanun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A74399-6480-43BC-BA0B-990AA17F71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72211BED-B9BC-4326-B438-C02D8159A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>RESMİ GAZETE</t>
   </si>
@@ -69,109 +69,46 @@
     <t>01.07.2022-31.12.2022</t>
   </si>
   <si>
-    <t>6471.00</t>
-  </si>
-  <si>
-    <t>7603.43</t>
-  </si>
-  <si>
     <t>17.12.2021/ 31692</t>
   </si>
   <si>
     <t>01.01.2022-30.06.2022</t>
   </si>
   <si>
-    <t>4253.40</t>
-  </si>
-  <si>
-    <t>5004.00</t>
-  </si>
-  <si>
-    <t>5879.70</t>
-  </si>
-  <si>
     <t>30.12.2020/ 31350</t>
   </si>
   <si>
     <t>01.01.2021-31.12.2021</t>
   </si>
   <si>
-    <t>2825.9</t>
-  </si>
-  <si>
-    <t>3577.5</t>
-  </si>
-  <si>
-    <t>4203.56</t>
-  </si>
-  <si>
     <t>27.12.2019/ 30991</t>
   </si>
   <si>
     <t>01.01.2020-31.12.2020</t>
   </si>
   <si>
-    <t>2324.71</t>
-  </si>
-  <si>
-    <t>3458.03</t>
-  </si>
-  <si>
     <t>27.12.2018/ 30638</t>
   </si>
   <si>
     <t>01.01.2019-31.12.2019</t>
   </si>
   <si>
-    <t>2020.9</t>
-  </si>
-  <si>
-    <t>2558.4</t>
-  </si>
-  <si>
-    <t>3006.12</t>
-  </si>
-  <si>
     <t>30.12.2017/ 30286</t>
   </si>
   <si>
     <t>01.01.2018-31.12.2018</t>
   </si>
   <si>
-    <t>1603.12</t>
-  </si>
-  <si>
-    <t>2029.5</t>
-  </si>
-  <si>
-    <t>2384.66</t>
-  </si>
-  <si>
     <t>30.12.2016/ 29934</t>
   </si>
   <si>
     <t>01.01.2017-31.12.2017</t>
   </si>
   <si>
-    <t>1404.06</t>
-  </si>
-  <si>
-    <t>1777.5</t>
-  </si>
-  <si>
-    <t>2088.56</t>
-  </si>
-  <si>
     <t>31.12.2015/ 29579</t>
   </si>
   <si>
     <t>01.01.2016-31.12.2016</t>
-  </si>
-  <si>
-    <t>1300.99</t>
-  </si>
-  <si>
-    <t>1935.23</t>
   </si>
 </sst>
 </file>
@@ -227,9 +164,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -237,6 +171,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,20 +456,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="6" width="35.28515625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -549,7 +489,7 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
@@ -564,7 +504,7 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -581,7 +521,7 @@
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,173 +533,173 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>11402.32</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>13414.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>15762.04</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>8506.7999999999993</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>10008</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>11759.4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>5500.35</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>6471</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7603.43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3">
+        <v>4253.3999999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5004</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5879.7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3">
+        <v>2825.9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3577.5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4203.5600000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
+      <c r="D13" s="3">
+        <v>2324.71</v>
       </c>
       <c r="E13" s="3">
         <v>2943</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
+      <c r="F13" s="3">
+        <v>3458.03</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2020.9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2558.4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3006.12</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>39</v>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1603.12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2029.5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2384.66</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1404.06</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1777.5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2088.56</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1300.99</v>
       </c>
       <c r="E17" s="3">
         <v>1647</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>48</v>
+      <c r="F17" s="3">
+        <v>1935.23</v>
       </c>
     </row>
   </sheetData>
